--- a/database_excel_files/CCM.xlsx
+++ b/database_excel_files/CCM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F2832-927D-4F7A-932C-EEA94A7C92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B26F2832-927D-4F7A-932C-EEA94A7C92B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DB1D32-64B9-461D-B32C-047C673F6E04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -39,46 +39,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>bf881aea650b47f2a0b8b98c9620a568</t>
-  </si>
-  <si>
-    <t>john@mail.com</t>
-  </si>
-  <si>
-    <t>John Wick</t>
-  </si>
-  <si>
-    <t>813a9d709fc64fa6b247f69d82a21146</t>
-  </si>
-  <si>
-    <t>sally@mail.com</t>
-  </si>
-  <si>
-    <t>Sally Tan</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
     <t>CCM1</t>
   </si>
   <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>password123</t>
+    <t>asdsadsa</t>
   </si>
   <si>
     <t>CCM2</t>
   </si>
   <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>newemail@example.com</t>
+    <t>asdsadasdsasa</t>
+  </si>
+  <si>
+    <t>CCasdM1</t>
+  </si>
+  <si>
+    <t>CCasdM2</t>
+  </si>
+  <si>
+    <t>CCasasddM1</t>
+  </si>
+  <si>
+    <t>CCasdMasd2</t>
   </si>
 </sst>
 </file>
@@ -86,18 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,16 +94,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,67 +408,679 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C65CF4E-3326-4CCD-9EF3-29263809CA29}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{07437C1C-AFBD-46D1-B095-2BD367E32A18}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>